--- a/employee_HW.xlsx
+++ b/employee_HW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07136AEE-D8FD-A049-8511-369C14B79895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8B8EA-4B38-1043-8871-AE7B520432EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidate data" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F588184A-5EBA-F14D-8CF3-C26349905407}">
   <dimension ref="D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B3" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
